--- a/Drafts/08.18.2024_Creative_QA_Report.xlsx
+++ b/Drafts/08.18.2024_Creative_QA_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devsrv\Deezni Offers Macro\Disney_offers_macro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devsrv\Deezni Offers Macro\Disney_offers_macro\Drafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18418637-3020-4626-8486-FF90BF9574FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B186BB9B-4F78-4E6A-A547-C0B52BA68F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{0DB45DFE-45BE-4E65-846F-B1FF4382521A}"/>
+    <workbookView xWindow="13200" yWindow="6645" windowWidth="43200" windowHeight="23445" activeTab="2" xr2:uid="{0DB45DFE-45BE-4E65-846F-B1FF4382521A}"/>
   </bookViews>
   <sheets>
     <sheet name="GOOGLE DOCS HERE" sheetId="7" r:id="rId1"/>
@@ -9313,8 +9313,8 @@
   </sheetPr>
   <dimension ref="A1:G1494"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -55689,10 +55689,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55760,8 +55760,131 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="G4">
+        <f ca="1">RANDBETWEEN(100,200)</f>
+        <v>133</v>
+      </c>
       <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G24" ca="1" si="0">RANDBETWEEN(100,200)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" ca="1" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" ca="1" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" ca="1" si="0"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" ca="1" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" ca="1" si="0"/>
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:G88" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -55778,7 +55901,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
